--- a/fileS4_microbe-data.xlsx
+++ b/fileS4_microbe-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\MicrobeExpansin_work\Final Products\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R projects\Microbial Expansins\Microbial_Expansins\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7B054536-1B66-45FF-A75C-E5939E025D4C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4211" uniqueCount="1704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4211" uniqueCount="1702">
   <si>
     <t>Notes</t>
   </si>
@@ -3239,9 +3240,6 @@
     <t>Only isolated from a tomb wall in Mexico; perhaps a soil microbe like other Bacillus; no ecological information available; niche is unlikely to only be 2000yr old tomb walls</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -3255,9 +3253,6 @@
   </si>
   <si>
     <t>Freshwater</t>
-  </si>
-  <si>
-    <t>UnkNown</t>
   </si>
   <si>
     <t>Physcomitrella-patens</t>
@@ -5187,7 +5182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5549,11 +5544,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L609"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" topLeftCell="A533" workbookViewId="0">
+      <selection activeCell="D553" sqref="D553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5567,36 +5562,36 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D1" t="s">
         <v>1692</v>
       </c>
-      <c r="B1" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1693</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>1694</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1695</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1696</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B2" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -5619,10 +5614,10 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B3" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -5631,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -5651,10 +5646,10 @@
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B4" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -5663,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -5677,10 +5672,10 @@
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B5" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -5700,10 +5695,10 @@
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B6" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -5726,10 +5721,10 @@
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B7" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -5752,10 +5747,10 @@
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B8" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -5778,10 +5773,10 @@
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B9" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -5804,10 +5799,10 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B10" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -5830,10 +5825,10 @@
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B11" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -5850,10 +5845,10 @@
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B12" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -5862,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -5876,10 +5871,10 @@
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B13" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -5896,10 +5891,10 @@
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B14" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -5922,10 +5917,10 @@
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B15" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -5948,10 +5943,10 @@
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B16" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -5974,10 +5969,10 @@
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B17" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -5991,10 +5986,10 @@
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B18" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -6003,7 +5998,7 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F18" t="s">
         <v>47</v>
@@ -6014,10 +6009,10 @@
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B19" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -6040,10 +6035,10 @@
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B20" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -6057,10 +6052,10 @@
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B21" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -6074,10 +6069,10 @@
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B22" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -6091,10 +6086,10 @@
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B23" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -6108,10 +6103,10 @@
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B24" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -6131,10 +6126,10 @@
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B25" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -6154,10 +6149,10 @@
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B26" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -6171,10 +6166,10 @@
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B27" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -6188,10 +6183,10 @@
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B28" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -6200,7 +6195,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F28" t="s">
         <v>56</v>
@@ -6208,10 +6203,10 @@
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B29" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -6231,10 +6226,10 @@
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B30" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -6254,10 +6249,10 @@
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B31" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -6277,10 +6272,10 @@
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B32" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -6300,10 +6295,10 @@
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B33" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -6323,10 +6318,10 @@
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B34" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -6346,10 +6341,10 @@
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B35" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -6358,7 +6353,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F35" t="s">
         <v>67</v>
@@ -6369,10 +6364,10 @@
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B36" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -6381,15 +6376,15 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B37" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -6398,15 +6393,15 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B38" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -6415,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F38" t="s">
         <v>69</v>
@@ -6426,10 +6421,10 @@
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B39" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -6438,15 +6433,15 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B40" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -6455,15 +6450,15 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B41" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -6480,10 +6475,10 @@
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B42" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -6500,10 +6495,10 @@
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B43" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -6523,10 +6518,10 @@
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B44" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -6535,12 +6530,12 @@
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B45" t="s">
         <v>76</v>
@@ -6566,7 +6561,7 @@
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B46" t="s">
         <v>76</v>
@@ -6589,10 +6584,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B47" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -6615,10 +6610,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B48" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -6638,10 +6633,10 @@
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B49" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -6664,10 +6659,10 @@
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B50" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -6687,10 +6682,10 @@
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B51" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -6710,10 +6705,10 @@
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B52" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -6733,10 +6728,10 @@
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B53" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -6756,10 +6751,10 @@
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B54" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -6782,10 +6777,10 @@
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B55" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -6805,10 +6800,10 @@
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B56" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -6828,10 +6823,10 @@
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B57" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -6854,10 +6849,10 @@
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B58" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -6880,10 +6875,10 @@
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B59" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -6900,10 +6895,10 @@
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B60" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -6923,10 +6918,10 @@
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B61" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -6949,10 +6944,10 @@
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B62" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
@@ -6978,10 +6973,10 @@
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B63" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -7001,10 +6996,10 @@
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B64" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -7024,10 +7019,10 @@
     </row>
     <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B65" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -7044,10 +7039,10 @@
     </row>
     <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B66" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -7067,10 +7062,10 @@
     </row>
     <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B67" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
@@ -7087,10 +7082,10 @@
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B68" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -7110,10 +7105,10 @@
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B69" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -7130,10 +7125,10 @@
     </row>
     <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B70" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -7153,10 +7148,10 @@
     </row>
     <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B71" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -7170,10 +7165,10 @@
     </row>
     <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B72" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -7193,10 +7188,10 @@
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B73" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -7216,10 +7211,10 @@
     </row>
     <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B74" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
@@ -7242,10 +7237,10 @@
     </row>
     <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B75" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
@@ -7265,10 +7260,10 @@
     </row>
     <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B76" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -7288,10 +7283,10 @@
     </row>
     <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B77" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
@@ -7311,10 +7306,10 @@
     </row>
     <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B78" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -7328,10 +7323,10 @@
     </row>
     <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B79" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -7351,10 +7346,10 @@
     </row>
     <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B80" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -7374,10 +7369,10 @@
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B81" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -7397,10 +7392,10 @@
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B82" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
@@ -7420,10 +7415,10 @@
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B83" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
@@ -7443,10 +7438,10 @@
     </row>
     <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B84" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
@@ -7466,10 +7461,10 @@
     </row>
     <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B85" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
@@ -7492,10 +7487,10 @@
     </row>
     <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B86" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -7515,10 +7510,10 @@
     </row>
     <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B87" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -7541,10 +7536,10 @@
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B88" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
@@ -7564,10 +7559,10 @@
     </row>
     <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B89" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
@@ -7584,10 +7579,10 @@
     </row>
     <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B90" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
@@ -7613,10 +7608,10 @@
     </row>
     <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B91" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -7639,10 +7634,10 @@
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B92" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -7659,10 +7654,10 @@
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B93" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -7682,10 +7677,10 @@
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B94" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -7694,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F94" t="s">
         <v>173</v>
@@ -7705,10 +7700,10 @@
     </row>
     <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B95" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
@@ -7725,10 +7720,10 @@
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B96" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -7737,7 +7732,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F96" t="s">
         <v>1068</v>
@@ -7754,10 +7749,10 @@
     </row>
     <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B97" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -7777,10 +7772,10 @@
     </row>
     <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B98" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -7800,10 +7795,10 @@
     </row>
     <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B99" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -7823,10 +7818,10 @@
     </row>
     <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B100" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -7849,10 +7844,10 @@
     </row>
     <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B101" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -7866,10 +7861,10 @@
     </row>
     <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B102" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -7892,10 +7887,10 @@
     </row>
     <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B103" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -7909,10 +7904,10 @@
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B104" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -7935,10 +7930,10 @@
     </row>
     <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B105" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -7961,10 +7956,10 @@
     </row>
     <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B106" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -7984,10 +7979,10 @@
     </row>
     <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B107" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -8010,10 +8005,10 @@
     </row>
     <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B108" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -8033,10 +8028,10 @@
     </row>
     <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B109" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -8056,10 +8051,10 @@
     </row>
     <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B110" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
@@ -8076,10 +8071,10 @@
     </row>
     <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B111" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
@@ -8088,7 +8083,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F111" t="s">
         <v>207</v>
@@ -8105,10 +8100,10 @@
     </row>
     <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B112" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
@@ -8128,10 +8123,10 @@
     </row>
     <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B113" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
@@ -8151,10 +8146,10 @@
     </row>
     <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B114" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -8171,10 +8166,10 @@
     </row>
     <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B115" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
@@ -8183,15 +8178,15 @@
         <v>14</v>
       </c>
       <c r="E115" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B116" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
@@ -8200,15 +8195,15 @@
         <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B117" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
@@ -8217,7 +8212,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F117" t="s">
         <v>215</v>
@@ -8228,10 +8223,10 @@
     </row>
     <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B118" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
@@ -8240,7 +8235,7 @@
         <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F118" t="s">
         <v>217</v>
@@ -8254,7 +8249,7 @@
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B119" t="s">
         <v>76</v>
@@ -8280,7 +8275,7 @@
     </row>
     <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B120" t="s">
         <v>76</v>
@@ -8303,10 +8298,10 @@
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B121" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
@@ -8329,10 +8324,10 @@
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B122" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
@@ -8346,10 +8341,10 @@
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B123" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
@@ -8369,10 +8364,10 @@
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B124" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
@@ -8389,10 +8384,10 @@
     </row>
     <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B125" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
@@ -8418,10 +8413,10 @@
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B126" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
@@ -8435,10 +8430,10 @@
     </row>
     <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B127" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
@@ -8455,10 +8450,10 @@
     </row>
     <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B128" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
@@ -8467,7 +8462,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F128" t="s">
         <v>235</v>
@@ -8478,10 +8473,10 @@
     </row>
     <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B129" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
@@ -8504,10 +8499,10 @@
     </row>
     <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B130" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -8521,10 +8516,10 @@
     </row>
     <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B131" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
@@ -8544,10 +8539,10 @@
     </row>
     <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B132" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
@@ -8561,10 +8556,10 @@
     </row>
     <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B133" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
@@ -8587,10 +8582,10 @@
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B134" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -8604,10 +8599,10 @@
     </row>
     <row r="135" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B135" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -8621,10 +8616,10 @@
     </row>
     <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B136" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -8641,10 +8636,10 @@
     </row>
     <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B137" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
@@ -8667,10 +8662,10 @@
     </row>
     <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B138" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
@@ -8684,10 +8679,10 @@
     </row>
     <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B139" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
@@ -8704,10 +8699,10 @@
     </row>
     <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B140" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
@@ -8721,10 +8716,10 @@
     </row>
     <row r="141" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B141" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
@@ -8744,10 +8739,10 @@
     </row>
     <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B142" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
@@ -8761,10 +8756,10 @@
     </row>
     <row r="143" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B143" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
@@ -8784,10 +8779,10 @@
     </row>
     <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B144" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
@@ -8804,10 +8799,10 @@
     </row>
     <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B145" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
@@ -8824,10 +8819,10 @@
     </row>
     <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B146" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
@@ -8841,10 +8836,10 @@
     </row>
     <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B147" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C147" t="s">
         <v>14</v>
@@ -8861,10 +8856,10 @@
     </row>
     <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B148" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -8878,10 +8873,10 @@
     </row>
     <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B149" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
@@ -8901,10 +8896,10 @@
     </row>
     <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B150" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
@@ -8924,10 +8919,10 @@
     </row>
     <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B151" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
@@ -8941,7 +8936,7 @@
     </row>
     <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B152" t="s">
         <v>76</v>
@@ -8967,10 +8962,10 @@
     </row>
     <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B153" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
@@ -8990,10 +8985,10 @@
     </row>
     <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B154" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
@@ -9016,7 +9011,7 @@
     </row>
     <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B155" t="s">
         <v>76</v>
@@ -9039,7 +9034,7 @@
     </row>
     <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B156" t="s">
         <v>76</v>
@@ -9056,7 +9051,7 @@
     </row>
     <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B157" t="s">
         <v>76</v>
@@ -9076,10 +9071,10 @@
     </row>
     <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B158" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
@@ -9099,10 +9094,10 @@
     </row>
     <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B159" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C159" t="s">
         <v>14</v>
@@ -9122,10 +9117,10 @@
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B160" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C160" t="s">
         <v>14</v>
@@ -9145,10 +9140,10 @@
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B161" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C161" t="s">
         <v>14</v>
@@ -9165,10 +9160,10 @@
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B162" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C162" t="s">
         <v>14</v>
@@ -9188,10 +9183,10 @@
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B163" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C163" t="s">
         <v>14</v>
@@ -9211,10 +9206,10 @@
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B164" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C164" t="s">
         <v>1</v>
@@ -9231,10 +9226,10 @@
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B165" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C165" t="s">
         <v>1</v>
@@ -9248,10 +9243,10 @@
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B166" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
@@ -9265,10 +9260,10 @@
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B167" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C167" t="s">
         <v>1</v>
@@ -9282,10 +9277,10 @@
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B168" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C168" t="s">
         <v>1</v>
@@ -9299,10 +9294,10 @@
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B169" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
@@ -9319,10 +9314,10 @@
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B170" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C170" t="s">
         <v>1</v>
@@ -9336,10 +9331,10 @@
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B171" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C171" t="s">
         <v>1</v>
@@ -9353,10 +9348,10 @@
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B172" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C172" t="s">
         <v>1</v>
@@ -9370,10 +9365,10 @@
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B173" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C173" t="s">
         <v>1</v>
@@ -9390,10 +9385,10 @@
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="B174" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C174" t="s">
         <v>1</v>
@@ -9410,10 +9405,10 @@
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B175" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C175" t="s">
         <v>1</v>
@@ -9427,10 +9422,10 @@
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B176" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
@@ -9444,10 +9439,10 @@
     </row>
     <row r="177" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B177" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C177" t="s">
         <v>1</v>
@@ -9461,10 +9456,10 @@
     </row>
     <row r="178" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B178" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C178" t="s">
         <v>1</v>
@@ -9478,10 +9473,10 @@
     </row>
     <row r="179" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B179" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C179" t="s">
         <v>14</v>
@@ -9501,10 +9496,10 @@
     </row>
     <row r="180" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B180" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C180" t="s">
         <v>14</v>
@@ -9521,10 +9516,10 @@
     </row>
     <row r="181" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B181" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C181" t="s">
         <v>14</v>
@@ -9544,10 +9539,10 @@
     </row>
     <row r="182" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B182" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
@@ -9556,7 +9551,7 @@
         <v>14</v>
       </c>
       <c r="E182" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F182" t="s">
         <v>286</v>
@@ -9564,10 +9559,10 @@
     </row>
     <row r="183" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B183" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C183" t="s">
         <v>1</v>
@@ -9576,7 +9571,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F183" t="s">
         <v>287</v>
@@ -9584,10 +9579,10 @@
     </row>
     <row r="184" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B184" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C184" t="s">
         <v>1</v>
@@ -9596,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="E184" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F184" t="s">
         <v>288</v>
@@ -9610,10 +9605,10 @@
     </row>
     <row r="185" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B185" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C185" t="s">
         <v>1</v>
@@ -9622,15 +9617,15 @@
         <v>1</v>
       </c>
       <c r="E185" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B186" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C186" t="s">
         <v>1</v>
@@ -9639,7 +9634,7 @@
         <v>1</v>
       </c>
       <c r="E186" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F186" t="s">
         <v>291</v>
@@ -9653,10 +9648,10 @@
     </row>
     <row r="187" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B187" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C187" t="s">
         <v>1</v>
@@ -9665,15 +9660,15 @@
         <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B188" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C188" t="s">
         <v>1</v>
@@ -9682,15 +9677,15 @@
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B189" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
@@ -9699,15 +9694,15 @@
         <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B190" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C190" t="s">
         <v>14</v>
@@ -9716,7 +9711,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F190" t="s">
         <v>294</v>
@@ -9727,10 +9722,10 @@
     </row>
     <row r="191" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B191" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C191" t="s">
         <v>14</v>
@@ -9739,15 +9734,15 @@
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B192" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C192" t="s">
         <v>14</v>
@@ -9756,15 +9751,15 @@
         <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B193" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C193" t="s">
         <v>14</v>
@@ -9773,7 +9768,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F193" t="s">
         <v>296</v>
@@ -9790,10 +9785,10 @@
     </row>
     <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B194" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C194" t="s">
         <v>14</v>
@@ -9802,15 +9797,15 @@
         <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B195" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C195" t="s">
         <v>14</v>
@@ -9819,15 +9814,15 @@
         <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B196" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C196" t="s">
         <v>14</v>
@@ -9847,10 +9842,10 @@
     </row>
     <row r="197" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B197" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C197" t="s">
         <v>1</v>
@@ -9870,10 +9865,10 @@
     </row>
     <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B198" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C198" t="s">
         <v>1</v>
@@ -9893,10 +9888,10 @@
     </row>
     <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B199" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C199" t="s">
         <v>1</v>
@@ -9919,10 +9914,10 @@
     </row>
     <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B200" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C200" t="s">
         <v>1</v>
@@ -9945,10 +9940,10 @@
     </row>
     <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B201" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="C201" t="s">
         <v>14</v>
@@ -9968,10 +9963,10 @@
     </row>
     <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B202" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="C202" t="s">
         <v>1</v>
@@ -9991,10 +9986,10 @@
     </row>
     <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B203" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C203" t="s">
         <v>1</v>
@@ -10011,10 +10006,10 @@
     </row>
     <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B204" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
@@ -10031,10 +10026,10 @@
     </row>
     <row r="205" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B205" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C205" t="s">
         <v>1</v>
@@ -10051,10 +10046,10 @@
     </row>
     <row r="206" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B206" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C206" t="s">
         <v>14</v>
@@ -10077,10 +10072,10 @@
     </row>
     <row r="207" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B207" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C207" t="s">
         <v>14</v>
@@ -10094,10 +10089,10 @@
     </row>
     <row r="208" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B208" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C208" t="s">
         <v>14</v>
@@ -10114,10 +10109,10 @@
     </row>
     <row r="209" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B209" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C209" t="s">
         <v>14</v>
@@ -10131,10 +10126,10 @@
     </row>
     <row r="210" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B210" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C210" t="s">
         <v>14</v>
@@ -10154,10 +10149,10 @@
     </row>
     <row r="211" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B211" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C211" t="s">
         <v>14</v>
@@ -10177,10 +10172,10 @@
     </row>
     <row r="212" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B212" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C212" t="s">
         <v>14</v>
@@ -10194,10 +10189,10 @@
     </row>
     <row r="213" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B213" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C213" t="s">
         <v>14</v>
@@ -10214,10 +10209,10 @@
     </row>
     <row r="214" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B214" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C214" t="s">
         <v>14</v>
@@ -10231,10 +10226,10 @@
     </row>
     <row r="215" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B215" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C215" t="s">
         <v>14</v>
@@ -10248,10 +10243,10 @@
     </row>
     <row r="216" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B216" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C216" t="s">
         <v>14</v>
@@ -10271,10 +10266,10 @@
     </row>
     <row r="217" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B217" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C217" t="s">
         <v>14</v>
@@ -10288,10 +10283,10 @@
     </row>
     <row r="218" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B218" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C218" t="s">
         <v>14</v>
@@ -10311,10 +10306,10 @@
     </row>
     <row r="219" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B219" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C219" t="s">
         <v>14</v>
@@ -10328,10 +10323,10 @@
     </row>
     <row r="220" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B220" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C220" t="s">
         <v>14</v>
@@ -10345,10 +10340,10 @@
     </row>
     <row r="221" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B221" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C221" t="s">
         <v>14</v>
@@ -10365,10 +10360,10 @@
     </row>
     <row r="222" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B222" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C222" t="s">
         <v>14</v>
@@ -10382,10 +10377,10 @@
     </row>
     <row r="223" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B223" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C223" t="s">
         <v>14</v>
@@ -10405,10 +10400,10 @@
     </row>
     <row r="224" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B224" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C224" t="s">
         <v>14</v>
@@ -10428,10 +10423,10 @@
     </row>
     <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="B225" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C225" t="s">
         <v>14</v>
@@ -10448,10 +10443,10 @@
     </row>
     <row r="226" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B226" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C226" t="s">
         <v>1</v>
@@ -10474,10 +10469,10 @@
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="B227" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C227" t="s">
         <v>1</v>
@@ -10494,10 +10489,10 @@
     </row>
     <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B228" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="C228" t="s">
         <v>1</v>
@@ -10506,7 +10501,7 @@
         <v>14</v>
       </c>
       <c r="E228" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F228" t="s">
         <v>339</v>
@@ -10514,10 +10509,10 @@
     </row>
     <row r="229" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B229" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C229" t="s">
         <v>1</v>
@@ -10537,10 +10532,10 @@
     </row>
     <row r="230" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B230" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C230" t="s">
         <v>1</v>
@@ -10560,10 +10555,10 @@
     </row>
     <row r="231" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="B231" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C231" t="s">
         <v>1</v>
@@ -10586,10 +10581,10 @@
     </row>
     <row r="232" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B232" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C232" t="s">
         <v>1</v>
@@ -10606,10 +10601,10 @@
     </row>
     <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B233" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C233" t="s">
         <v>1</v>
@@ -10629,10 +10624,10 @@
     </row>
     <row r="234" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B234" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C234" t="s">
         <v>1</v>
@@ -10655,10 +10650,10 @@
     </row>
     <row r="235" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B235" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C235" t="s">
         <v>1</v>
@@ -10678,10 +10673,10 @@
     </row>
     <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B236" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C236" t="s">
         <v>1</v>
@@ -10698,10 +10693,10 @@
     </row>
     <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="B237" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C237" t="s">
         <v>1</v>
@@ -10721,10 +10716,10 @@
     </row>
     <row r="238" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B238" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C238" t="s">
         <v>1</v>
@@ -10744,10 +10739,10 @@
     </row>
     <row r="239" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="B239" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C239" t="s">
         <v>1</v>
@@ -10770,10 +10765,10 @@
     </row>
     <row r="240" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B240" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C240" t="s">
         <v>1</v>
@@ -10782,7 +10777,7 @@
         <v>1</v>
       </c>
       <c r="E240" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F240" t="s">
         <v>364</v>
@@ -10793,7 +10788,7 @@
     </row>
     <row r="241" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="B241" t="s">
         <v>76</v>
@@ -10802,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="D241" t="s">
-        <v>1069</v>
+        <v>1</v>
       </c>
       <c r="E241" t="s">
         <v>2</v>
@@ -10822,10 +10817,10 @@
     </row>
     <row r="242" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B242" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C242" t="s">
         <v>1</v>
@@ -10842,10 +10837,10 @@
     </row>
     <row r="243" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B243" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C243" t="s">
         <v>1</v>
@@ -10862,10 +10857,10 @@
     </row>
     <row r="244" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B244" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C244" t="s">
         <v>1</v>
@@ -10882,10 +10877,10 @@
     </row>
     <row r="245" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B245" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C245" t="s">
         <v>1</v>
@@ -10902,10 +10897,10 @@
     </row>
     <row r="246" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B246" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="C246" t="s">
         <v>1</v>
@@ -10914,15 +10909,15 @@
         <v>14</v>
       </c>
       <c r="E246" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B247" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="C247" t="s">
         <v>1</v>
@@ -10931,15 +10926,15 @@
         <v>14</v>
       </c>
       <c r="E247" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B248" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="C248" t="s">
         <v>1</v>
@@ -10948,15 +10943,15 @@
         <v>14</v>
       </c>
       <c r="E248" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B249" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="C249" t="s">
         <v>1</v>
@@ -10965,15 +10960,15 @@
         <v>14</v>
       </c>
       <c r="E249" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B250" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C250" t="s">
         <v>1</v>
@@ -10990,7 +10985,7 @@
     </row>
     <row r="251" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B251" t="s">
         <v>76</v>
@@ -11013,10 +11008,10 @@
     </row>
     <row r="252" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B252" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C252" t="s">
         <v>1</v>
@@ -11036,10 +11031,10 @@
     </row>
     <row r="253" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B253" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C253" t="s">
         <v>1</v>
@@ -11053,10 +11048,10 @@
     </row>
     <row r="254" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="B254" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C254" t="s">
         <v>1</v>
@@ -11076,10 +11071,10 @@
     </row>
     <row r="255" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B255" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C255" t="s">
         <v>1</v>
@@ -11088,7 +11083,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F255" t="s">
         <v>381</v>
@@ -11099,10 +11094,10 @@
     </row>
     <row r="256" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B256" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C256" t="s">
         <v>1</v>
@@ -11122,10 +11117,10 @@
     </row>
     <row r="257" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B257" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C257" t="s">
         <v>1</v>
@@ -11145,10 +11140,10 @@
     </row>
     <row r="258" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B258" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C258" t="s">
         <v>1</v>
@@ -11162,10 +11157,10 @@
     </row>
     <row r="259" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B259" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C259" t="s">
         <v>1</v>
@@ -11185,10 +11180,10 @@
     </row>
     <row r="260" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B260" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C260" t="s">
         <v>1</v>
@@ -11205,10 +11200,10 @@
     </row>
     <row r="261" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B261" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C261" t="s">
         <v>1</v>
@@ -11228,10 +11223,10 @@
     </row>
     <row r="262" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B262" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C262" t="s">
         <v>1</v>
@@ -11248,10 +11243,10 @@
     </row>
     <row r="263" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="B263" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C263" t="s">
         <v>14</v>
@@ -11271,10 +11266,10 @@
     </row>
     <row r="264" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B264" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C264" t="s">
         <v>1</v>
@@ -11283,7 +11278,7 @@
         <v>1</v>
       </c>
       <c r="E264" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F264" t="s">
         <v>392</v>
@@ -11291,10 +11286,10 @@
     </row>
     <row r="265" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B265" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="C265" t="s">
         <v>1</v>
@@ -11314,10 +11309,10 @@
     </row>
     <row r="266" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B266" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C266" t="s">
         <v>1</v>
@@ -11337,10 +11332,10 @@
     </row>
     <row r="267" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B267" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C267" t="s">
         <v>14</v>
@@ -11357,10 +11352,10 @@
     </row>
     <row r="268" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B268" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C268" t="s">
         <v>14</v>
@@ -11374,10 +11369,10 @@
     </row>
     <row r="269" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B269" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C269" t="s">
         <v>14</v>
@@ -11397,10 +11392,10 @@
     </row>
     <row r="270" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B270" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C270" t="s">
         <v>14</v>
@@ -11423,10 +11418,10 @@
     </row>
     <row r="271" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B271" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C271" t="s">
         <v>1</v>
@@ -11435,7 +11430,7 @@
         <v>14</v>
       </c>
       <c r="E271" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F271" t="s">
         <v>339</v>
@@ -11446,10 +11441,10 @@
     </row>
     <row r="272" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B272" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="C272" t="s">
         <v>14</v>
@@ -11472,10 +11467,10 @@
     </row>
     <row r="273" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B273" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C273" t="s">
         <v>1</v>
@@ -11495,10 +11490,10 @@
     </row>
     <row r="274" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B274" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C274" t="s">
         <v>1</v>
@@ -11512,10 +11507,10 @@
     </row>
     <row r="275" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B275" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C275" t="s">
         <v>1</v>
@@ -11535,10 +11530,10 @@
     </row>
     <row r="276" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B276" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C276" t="s">
         <v>1</v>
@@ -11558,10 +11553,10 @@
     </row>
     <row r="277" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B277" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C277" t="s">
         <v>1</v>
@@ -11581,10 +11576,10 @@
     </row>
     <row r="278" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B278" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C278" t="s">
         <v>1</v>
@@ -11604,10 +11599,10 @@
     </row>
     <row r="279" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B279" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C279" t="s">
         <v>1</v>
@@ -11630,10 +11625,10 @@
     </row>
     <row r="280" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B280" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C280" t="s">
         <v>1</v>
@@ -11656,10 +11651,10 @@
     </row>
     <row r="281" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B281" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C281" t="s">
         <v>1</v>
@@ -11679,10 +11674,10 @@
     </row>
     <row r="282" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B282" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C282" t="s">
         <v>1</v>
@@ -11702,10 +11697,10 @@
     </row>
     <row r="283" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B283" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C283" t="s">
         <v>1</v>
@@ -11728,10 +11723,10 @@
     </row>
     <row r="284" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B284" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C284" t="s">
         <v>1</v>
@@ -11751,10 +11746,10 @@
     </row>
     <row r="285" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B285" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C285" t="s">
         <v>1</v>
@@ -11774,10 +11769,10 @@
     </row>
     <row r="286" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B286" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C286" t="s">
         <v>1</v>
@@ -11797,10 +11792,10 @@
     </row>
     <row r="287" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B287" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C287" t="s">
         <v>1</v>
@@ -11823,10 +11818,10 @@
     </row>
     <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B288" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C288" t="s">
         <v>1</v>
@@ -11849,10 +11844,10 @@
     </row>
     <row r="289" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B289" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C289" t="s">
         <v>1</v>
@@ -11872,10 +11867,10 @@
     </row>
     <row r="290" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B290" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C290" t="s">
         <v>1</v>
@@ -11895,10 +11890,10 @@
     </row>
     <row r="291" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B291" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C291" t="s">
         <v>1</v>
@@ -11918,10 +11913,10 @@
     </row>
     <row r="292" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B292" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C292" t="s">
         <v>1</v>
@@ -11941,10 +11936,10 @@
     </row>
     <row r="293" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B293" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C293" t="s">
         <v>1</v>
@@ -11964,10 +11959,10 @@
     </row>
     <row r="294" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B294" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C294" t="s">
         <v>1</v>
@@ -11987,10 +11982,10 @@
     </row>
     <row r="295" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B295" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C295" t="s">
         <v>1</v>
@@ -12010,10 +12005,10 @@
     </row>
     <row r="296" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B296" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C296" t="s">
         <v>1</v>
@@ -12033,10 +12028,10 @@
     </row>
     <row r="297" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B297" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C297" t="s">
         <v>1</v>
@@ -12056,10 +12051,10 @@
     </row>
     <row r="298" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B298" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C298" t="s">
         <v>1</v>
@@ -12079,10 +12074,10 @@
     </row>
     <row r="299" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B299" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C299" t="s">
         <v>1</v>
@@ -12102,10 +12097,10 @@
     </row>
     <row r="300" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B300" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C300" t="s">
         <v>1</v>
@@ -12125,10 +12120,10 @@
     </row>
     <row r="301" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B301" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C301" t="s">
         <v>1</v>
@@ -12148,10 +12143,10 @@
     </row>
     <row r="302" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B302" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C302" t="s">
         <v>1</v>
@@ -12171,10 +12166,10 @@
     </row>
     <row r="303" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B303" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C303" t="s">
         <v>1</v>
@@ -12194,7 +12189,7 @@
     </row>
     <row r="304" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B304" t="s">
         <v>76</v>
@@ -12217,10 +12212,10 @@
     </row>
     <row r="305" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="B305" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C305" t="s">
         <v>1</v>
@@ -12237,10 +12232,10 @@
     </row>
     <row r="306" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B306" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="C306" t="s">
         <v>14</v>
@@ -12266,10 +12261,10 @@
     </row>
     <row r="307" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B307" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="C307" t="s">
         <v>1</v>
@@ -12301,10 +12296,10 @@
     </row>
     <row r="308" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B308" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C308" t="s">
         <v>14</v>
@@ -12324,7 +12319,7 @@
     </row>
     <row r="309" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B309" t="s">
         <v>76</v>
@@ -12347,7 +12342,7 @@
     </row>
     <row r="310" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B310" t="s">
         <v>76</v>
@@ -12370,7 +12365,7 @@
     </row>
     <row r="311" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B311" t="s">
         <v>76</v>
@@ -12393,7 +12388,7 @@
     </row>
     <row r="312" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B312" t="s">
         <v>76</v>
@@ -12416,7 +12411,7 @@
     </row>
     <row r="313" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B313" t="s">
         <v>76</v>
@@ -12439,10 +12434,10 @@
     </row>
     <row r="314" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B314" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C314" t="s">
         <v>1</v>
@@ -12462,10 +12457,10 @@
     </row>
     <row r="315" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B315" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C315" t="s">
         <v>1</v>
@@ -12474,7 +12469,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F315" t="s">
         <v>484</v>
@@ -12488,10 +12483,10 @@
     </row>
     <row r="316" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B316" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C316" t="s">
         <v>1</v>
@@ -12500,7 +12495,7 @@
         <v>14</v>
       </c>
       <c r="E316" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F316" t="s">
         <v>487</v>
@@ -12511,7 +12506,7 @@
     </row>
     <row r="317" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B317" t="s">
         <v>76</v>
@@ -12534,10 +12529,10 @@
     </row>
     <row r="318" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B318" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C318" t="s">
         <v>14</v>
@@ -12560,10 +12555,10 @@
     </row>
     <row r="319" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B319" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C319" t="s">
         <v>14</v>
@@ -12577,10 +12572,10 @@
     </row>
     <row r="320" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B320" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C320" t="s">
         <v>14</v>
@@ -12594,10 +12589,10 @@
     </row>
     <row r="321" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B321" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C321" t="s">
         <v>1</v>
@@ -12620,10 +12615,10 @@
     </row>
     <row r="322" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B322" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C322" t="s">
         <v>14</v>
@@ -12643,10 +12638,10 @@
     </row>
     <row r="323" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B323" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C323" t="s">
         <v>14</v>
@@ -12660,10 +12655,10 @@
     </row>
     <row r="324" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B324" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C324" t="s">
         <v>14</v>
@@ -12677,10 +12672,10 @@
     </row>
     <row r="325" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B325" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C325" t="s">
         <v>14</v>
@@ -12694,10 +12689,10 @@
     </row>
     <row r="326" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B326" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C326" t="s">
         <v>14</v>
@@ -12720,10 +12715,10 @@
     </row>
     <row r="327" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B327" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C327" t="s">
         <v>1</v>
@@ -12743,10 +12738,10 @@
     </row>
     <row r="328" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B328" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C328" t="s">
         <v>1</v>
@@ -12769,10 +12764,10 @@
     </row>
     <row r="329" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B329" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C329" t="s">
         <v>1</v>
@@ -12795,10 +12790,10 @@
     </row>
     <row r="330" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B330" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C330" t="s">
         <v>1</v>
@@ -12824,10 +12819,10 @@
     </row>
     <row r="331" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B331" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C331" t="s">
         <v>1</v>
@@ -12850,10 +12845,10 @@
     </row>
     <row r="332" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B332" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C332" t="s">
         <v>1</v>
@@ -12873,10 +12868,10 @@
     </row>
     <row r="333" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B333" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C333" t="s">
         <v>1</v>
@@ -12896,10 +12891,10 @@
     </row>
     <row r="334" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B334" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C334" t="s">
         <v>1</v>
@@ -12919,10 +12914,10 @@
     </row>
     <row r="335" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B335" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C335" t="s">
         <v>1</v>
@@ -12945,10 +12940,10 @@
     </row>
     <row r="336" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B336" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C336" t="s">
         <v>1</v>
@@ -12968,10 +12963,10 @@
     </row>
     <row r="337" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B337" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C337" t="s">
         <v>1</v>
@@ -12991,10 +12986,10 @@
     </row>
     <row r="338" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B338" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C338" t="s">
         <v>1</v>
@@ -13014,10 +13009,10 @@
     </row>
     <row r="339" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B339" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C339" t="s">
         <v>1</v>
@@ -13040,10 +13035,10 @@
     </row>
     <row r="340" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B340" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C340" t="s">
         <v>1</v>
@@ -13063,10 +13058,10 @@
     </row>
     <row r="341" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B341" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C341" t="s">
         <v>1</v>
@@ -13086,10 +13081,10 @@
     </row>
     <row r="342" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B342" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C342" t="s">
         <v>1</v>
@@ -13106,10 +13101,10 @@
     </row>
     <row r="343" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B343" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C343" t="s">
         <v>1</v>
@@ -13132,10 +13127,10 @@
     </row>
     <row r="344" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B344" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C344" t="s">
         <v>1</v>
@@ -13155,10 +13150,10 @@
     </row>
     <row r="345" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B345" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C345" t="s">
         <v>1</v>
@@ -13167,7 +13162,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F345" t="s">
         <v>537</v>
@@ -13181,10 +13176,10 @@
     </row>
     <row r="346" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B346" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C346" t="s">
         <v>1</v>
@@ -13204,10 +13199,10 @@
     </row>
     <row r="347" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B347" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C347" t="s">
         <v>1</v>
@@ -13230,10 +13225,10 @@
     </row>
     <row r="348" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B348" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C348" t="s">
         <v>1</v>
@@ -13253,10 +13248,10 @@
     </row>
     <row r="349" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B349" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C349" t="s">
         <v>1</v>
@@ -13276,10 +13271,10 @@
     </row>
     <row r="350" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B350" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C350" t="s">
         <v>1</v>
@@ -13305,10 +13300,10 @@
     </row>
     <row r="351" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B351" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C351" t="s">
         <v>1</v>
@@ -13331,10 +13326,10 @@
     </row>
     <row r="352" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B352" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C352" t="s">
         <v>1</v>
@@ -13354,10 +13349,10 @@
     </row>
     <row r="353" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B353" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C353" t="s">
         <v>1</v>
@@ -13366,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F353" t="s">
         <v>556</v>
@@ -13386,10 +13381,10 @@
     </row>
     <row r="354" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B354" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C354" t="s">
         <v>1</v>
@@ -13398,7 +13393,7 @@
         <v>14</v>
       </c>
       <c r="E354" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F354" t="s">
         <v>561</v>
@@ -13412,10 +13407,10 @@
     </row>
     <row r="355" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B355" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C355" t="s">
         <v>1</v>
@@ -13438,10 +13433,10 @@
     </row>
     <row r="356" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B356" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C356" t="s">
         <v>1</v>
@@ -13461,10 +13456,10 @@
     </row>
     <row r="357" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B357" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C357" t="s">
         <v>1</v>
@@ -13484,10 +13479,10 @@
     </row>
     <row r="358" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B358" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C358" t="s">
         <v>1</v>
@@ -13507,10 +13502,10 @@
     </row>
     <row r="359" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B359" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C359" t="s">
         <v>1</v>
@@ -13530,10 +13525,10 @@
     </row>
     <row r="360" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B360" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C360" t="s">
         <v>1</v>
@@ -13553,10 +13548,10 @@
     </row>
     <row r="361" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B361" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C361" t="s">
         <v>1</v>
@@ -13576,10 +13571,10 @@
     </row>
     <row r="362" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B362" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C362" t="s">
         <v>1</v>
@@ -13602,10 +13597,10 @@
     </row>
     <row r="363" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B363" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C363" t="s">
         <v>1</v>
@@ -13625,10 +13620,10 @@
     </row>
     <row r="364" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B364" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C364" t="s">
         <v>1</v>
@@ -13637,7 +13632,7 @@
         <v>1</v>
       </c>
       <c r="E364" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F364" t="s">
         <v>561</v>
@@ -13648,10 +13643,10 @@
     </row>
     <row r="365" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B365" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C365" t="s">
         <v>1</v>
@@ -13671,10 +13666,10 @@
     </row>
     <row r="366" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B366" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C366" t="s">
         <v>14</v>
@@ -13694,10 +13689,10 @@
     </row>
     <row r="367" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B367" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C367" t="s">
         <v>1</v>
@@ -13717,10 +13712,10 @@
     </row>
     <row r="368" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B368" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C368" t="s">
         <v>1</v>
@@ -13740,10 +13735,10 @@
     </row>
     <row r="369" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B369" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C369" t="s">
         <v>14</v>
@@ -13766,10 +13761,10 @@
     </row>
     <row r="370" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="B370" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C370" t="s">
         <v>14</v>
@@ -13789,10 +13784,10 @@
     </row>
     <row r="371" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B371" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C371" t="s">
         <v>14</v>
@@ -13815,10 +13810,10 @@
     </row>
     <row r="372" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B372" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C372" t="s">
         <v>14</v>
@@ -13838,10 +13833,10 @@
     </row>
     <row r="373" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="B373" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C373" t="s">
         <v>14</v>
@@ -13864,10 +13859,10 @@
     </row>
     <row r="374" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B374" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C374" t="s">
         <v>1</v>
@@ -13890,10 +13885,10 @@
     </row>
     <row r="375" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B375" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C375" t="s">
         <v>1</v>
@@ -13913,10 +13908,10 @@
     </row>
     <row r="376" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B376" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C376" t="s">
         <v>1</v>
@@ -13939,10 +13934,10 @@
     </row>
     <row r="377" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B377" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C377" t="s">
         <v>1</v>
@@ -13956,10 +13951,10 @@
     </row>
     <row r="378" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B378" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C378" t="s">
         <v>1</v>
@@ -13968,7 +13963,7 @@
         <v>1</v>
       </c>
       <c r="E378" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F378" t="s">
         <v>614</v>
@@ -13976,10 +13971,10 @@
     </row>
     <row r="379" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="B379" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C379" t="s">
         <v>1</v>
@@ -14005,10 +14000,10 @@
     </row>
     <row r="380" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B380" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C380" t="s">
         <v>1</v>
@@ -14025,10 +14020,10 @@
     </row>
     <row r="381" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B381" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C381" t="s">
         <v>1</v>
@@ -14048,10 +14043,10 @@
     </row>
     <row r="382" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B382" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C382" t="s">
         <v>14</v>
@@ -14068,10 +14063,10 @@
     </row>
     <row r="383" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="B383" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C383" t="s">
         <v>14</v>
@@ -14091,10 +14086,10 @@
     </row>
     <row r="384" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B384" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C384" t="s">
         <v>1</v>
@@ -14117,10 +14112,10 @@
     </row>
     <row r="385" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B385" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C385" t="s">
         <v>1</v>
@@ -14140,10 +14135,10 @@
     </row>
     <row r="386" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B386" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C386" t="s">
         <v>1</v>
@@ -14163,10 +14158,10 @@
     </row>
     <row r="387" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B387" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C387" t="s">
         <v>1</v>
@@ -14189,10 +14184,10 @@
     </row>
     <row r="388" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="B388" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C388" t="s">
         <v>1</v>
@@ -14212,10 +14207,10 @@
     </row>
     <row r="389" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="B389" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C389" t="s">
         <v>1</v>
@@ -14235,10 +14230,10 @@
     </row>
     <row r="390" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B390" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C390" t="s">
         <v>1</v>
@@ -14258,10 +14253,10 @@
     </row>
     <row r="391" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B391" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C391" t="s">
         <v>1</v>
@@ -14278,10 +14273,10 @@
     </row>
     <row r="392" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="B392" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C392" t="s">
         <v>1</v>
@@ -14304,10 +14299,10 @@
     </row>
     <row r="393" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B393" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C393" t="s">
         <v>1</v>
@@ -14327,10 +14322,10 @@
     </row>
     <row r="394" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B394" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C394" t="s">
         <v>1</v>
@@ -14350,10 +14345,10 @@
     </row>
     <row r="395" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B395" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C395" t="s">
         <v>14</v>
@@ -14370,10 +14365,10 @@
     </row>
     <row r="396" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B396" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="C396" t="s">
         <v>1</v>
@@ -14382,15 +14377,15 @@
         <v>14</v>
       </c>
       <c r="E396" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="397" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B397" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C397" t="s">
         <v>14</v>
@@ -14410,10 +14405,10 @@
     </row>
     <row r="398" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B398" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C398" t="s">
         <v>14</v>
@@ -14427,10 +14422,10 @@
     </row>
     <row r="399" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B399" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C399" t="s">
         <v>14</v>
@@ -14444,10 +14439,10 @@
     </row>
     <row r="400" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B400" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C400" t="s">
         <v>14</v>
@@ -14461,10 +14456,10 @@
     </row>
     <row r="401" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B401" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C401" t="s">
         <v>14</v>
@@ -14478,10 +14473,10 @@
     </row>
     <row r="402" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B402" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C402" t="s">
         <v>14</v>
@@ -14495,10 +14490,10 @@
     </row>
     <row r="403" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B403" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C403" t="s">
         <v>14</v>
@@ -14515,10 +14510,10 @@
     </row>
     <row r="404" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B404" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C404" t="s">
         <v>14</v>
@@ -14532,10 +14527,10 @@
     </row>
     <row r="405" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B405" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C405" t="s">
         <v>14</v>
@@ -14549,10 +14544,10 @@
     </row>
     <row r="406" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B406" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C406" t="s">
         <v>14</v>
@@ -14566,10 +14561,10 @@
     </row>
     <row r="407" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B407" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C407" t="s">
         <v>14</v>
@@ -14583,10 +14578,10 @@
     </row>
     <row r="408" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B408" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C408" t="s">
         <v>14</v>
@@ -14600,10 +14595,10 @@
     </row>
     <row r="409" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B409" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C409" t="s">
         <v>14</v>
@@ -14617,10 +14612,10 @@
     </row>
     <row r="410" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B410" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C410" t="s">
         <v>14</v>
@@ -14634,10 +14629,10 @@
     </row>
     <row r="411" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B411" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C411" t="s">
         <v>14</v>
@@ -14651,10 +14646,10 @@
     </row>
     <row r="412" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B412" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C412" t="s">
         <v>14</v>
@@ -14668,10 +14663,10 @@
     </row>
     <row r="413" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="B413" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C413" t="s">
         <v>14</v>
@@ -14694,10 +14689,10 @@
     </row>
     <row r="414" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B414" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C414" t="s">
         <v>14</v>
@@ -14711,10 +14706,10 @@
     </row>
     <row r="415" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B415" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C415" t="s">
         <v>14</v>
@@ -14728,10 +14723,10 @@
     </row>
     <row r="416" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B416" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C416" t="s">
         <v>14</v>
@@ -14745,10 +14740,10 @@
     </row>
     <row r="417" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B417" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C417" t="s">
         <v>14</v>
@@ -14762,10 +14757,10 @@
     </row>
     <row r="418" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B418" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C418" t="s">
         <v>14</v>
@@ -14779,10 +14774,10 @@
     </row>
     <row r="419" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B419" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C419" t="s">
         <v>14</v>
@@ -14796,10 +14791,10 @@
     </row>
     <row r="420" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B420" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C420" t="s">
         <v>14</v>
@@ -14813,10 +14808,10 @@
     </row>
     <row r="421" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B421" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C421" t="s">
         <v>14</v>
@@ -14836,10 +14831,10 @@
     </row>
     <row r="422" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B422" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C422" t="s">
         <v>14</v>
@@ -14853,10 +14848,10 @@
     </row>
     <row r="423" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B423" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C423" t="s">
         <v>14</v>
@@ -14870,10 +14865,10 @@
     </row>
     <row r="424" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B424" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C424" t="s">
         <v>14</v>
@@ -14887,10 +14882,10 @@
     </row>
     <row r="425" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B425" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C425" t="s">
         <v>14</v>
@@ -14904,10 +14899,10 @@
     </row>
     <row r="426" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B426" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C426" t="s">
         <v>14</v>
@@ -14921,10 +14916,10 @@
     </row>
     <row r="427" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B427" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C427" t="s">
         <v>14</v>
@@ -14938,10 +14933,10 @@
     </row>
     <row r="428" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B428" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C428" t="s">
         <v>14</v>
@@ -14955,10 +14950,10 @@
     </row>
     <row r="429" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B429" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C429" t="s">
         <v>14</v>
@@ -14972,10 +14967,10 @@
     </row>
     <row r="430" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="B430" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C430" t="s">
         <v>1</v>
@@ -14995,10 +14990,10 @@
     </row>
     <row r="431" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="B431" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C431" t="s">
         <v>1</v>
@@ -15018,10 +15013,10 @@
     </row>
     <row r="432" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="B432" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C432" t="s">
         <v>1</v>
@@ -15044,10 +15039,10 @@
     </row>
     <row r="433" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B433" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C433" t="s">
         <v>14</v>
@@ -15067,10 +15062,10 @@
     </row>
     <row r="434" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B434" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C434" t="s">
         <v>14</v>
@@ -15084,10 +15079,10 @@
     </row>
     <row r="435" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B435" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C435" t="s">
         <v>14</v>
@@ -15101,7 +15096,7 @@
     </row>
     <row r="436" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="B436" t="s">
         <v>76</v>
@@ -15127,10 +15122,10 @@
     </row>
     <row r="437" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="B437" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C437" t="s">
         <v>1</v>
@@ -15150,10 +15145,10 @@
     </row>
     <row r="438" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="B438" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C438" t="s">
         <v>1</v>
@@ -15173,10 +15168,10 @@
     </row>
     <row r="439" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B439" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C439" t="s">
         <v>1</v>
@@ -15190,10 +15185,10 @@
     </row>
     <row r="440" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="B440" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C440" t="s">
         <v>1</v>
@@ -15213,10 +15208,10 @@
     </row>
     <row r="441" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B441" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C441" t="s">
         <v>1</v>
@@ -15230,10 +15225,10 @@
     </row>
     <row r="442" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="B442" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C442" t="s">
         <v>14</v>
@@ -15253,10 +15248,10 @@
     </row>
     <row r="443" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="B443" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C443" t="s">
         <v>14</v>
@@ -15276,10 +15271,10 @@
     </row>
     <row r="444" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="B444" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C444" t="s">
         <v>1</v>
@@ -15299,10 +15294,10 @@
     </row>
     <row r="445" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="B445" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C445" t="s">
         <v>1</v>
@@ -15322,10 +15317,10 @@
     </row>
     <row r="446" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B446" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="C446" t="s">
         <v>14</v>
@@ -15345,10 +15340,10 @@
     </row>
     <row r="447" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B447" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="C447" t="s">
         <v>14</v>
@@ -15368,10 +15363,10 @@
     </row>
     <row r="448" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B448" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="C448" t="s">
         <v>14</v>
@@ -15391,10 +15386,10 @@
     </row>
     <row r="449" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="B449" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="C449" t="s">
         <v>14</v>
@@ -15414,10 +15409,10 @@
     </row>
     <row r="450" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="B450" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C450" t="s">
         <v>14</v>
@@ -15437,10 +15432,10 @@
     </row>
     <row r="451" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B451" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C451" t="s">
         <v>14</v>
@@ -15463,10 +15458,10 @@
     </row>
     <row r="452" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="B452" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C452" t="s">
         <v>1</v>
@@ -15475,7 +15470,7 @@
         <v>1</v>
       </c>
       <c r="E452" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F452" t="s">
         <v>695</v>
@@ -15489,10 +15484,10 @@
     </row>
     <row r="453" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B453" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C453" t="s">
         <v>14</v>
@@ -15509,10 +15504,10 @@
     </row>
     <row r="454" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="B454" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C454" t="s">
         <v>14</v>
@@ -15529,10 +15524,10 @@
     </row>
     <row r="455" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="B455" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C455" t="s">
         <v>1</v>
@@ -15558,10 +15553,10 @@
     </row>
     <row r="456" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="B456" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C456" t="s">
         <v>1</v>
@@ -15581,10 +15576,10 @@
     </row>
     <row r="457" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B457" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="C457" t="s">
         <v>14</v>
@@ -15604,10 +15599,10 @@
     </row>
     <row r="458" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B458" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C458" t="s">
         <v>1</v>
@@ -15616,7 +15611,7 @@
         <v>1</v>
       </c>
       <c r="E458" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F458" t="s">
         <v>708</v>
@@ -15630,10 +15625,10 @@
     </row>
     <row r="459" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B459" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C459" t="s">
         <v>14</v>
@@ -15656,10 +15651,10 @@
     </row>
     <row r="460" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B460" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C460" t="s">
         <v>1</v>
@@ -15679,10 +15674,10 @@
     </row>
     <row r="461" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B461" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C461" t="s">
         <v>1</v>
@@ -15702,7 +15697,7 @@
     </row>
     <row r="462" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B462" t="s">
         <v>76</v>
@@ -15725,10 +15720,10 @@
     </row>
     <row r="463" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B463" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C463" t="s">
         <v>1</v>
@@ -15751,10 +15746,10 @@
     </row>
     <row r="464" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B464" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C464" t="s">
         <v>1</v>
@@ -15768,10 +15763,10 @@
     </row>
     <row r="465" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B465" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C465" t="s">
         <v>1</v>
@@ -15797,10 +15792,10 @@
     </row>
     <row r="466" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B466" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C466" t="s">
         <v>1</v>
@@ -15814,10 +15809,10 @@
     </row>
     <row r="467" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B467" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C467" t="s">
         <v>1</v>
@@ -15831,10 +15826,10 @@
     </row>
     <row r="468" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B468" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="C468" t="s">
         <v>1</v>
@@ -15857,10 +15852,10 @@
     </row>
     <row r="469" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B469" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C469" t="s">
         <v>14</v>
@@ -15880,10 +15875,10 @@
     </row>
     <row r="470" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B470" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C470" t="s">
         <v>14</v>
@@ -15903,10 +15898,10 @@
     </row>
     <row r="471" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B471" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C471" t="s">
         <v>14</v>
@@ -15926,10 +15921,10 @@
     </row>
     <row r="472" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B472" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C472" t="s">
         <v>14</v>
@@ -15943,7 +15938,7 @@
     </row>
     <row r="473" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B473" t="s">
         <v>76</v>
@@ -15972,10 +15967,10 @@
     </row>
     <row r="474" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B474" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C474" t="s">
         <v>1</v>
@@ -15984,7 +15979,7 @@
         <v>1</v>
       </c>
       <c r="E474" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F474" t="s">
         <v>739</v>
@@ -15998,10 +15993,10 @@
     </row>
     <row r="475" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B475" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C475" t="s">
         <v>14</v>
@@ -16024,10 +16019,10 @@
     </row>
     <row r="476" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B476" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C476" t="s">
         <v>1</v>
@@ -16053,10 +16048,10 @@
     </row>
     <row r="477" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B477" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C477" t="s">
         <v>14</v>
@@ -16079,7 +16074,7 @@
     </row>
     <row r="478" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B478" t="s">
         <v>76</v>
@@ -16108,7 +16103,7 @@
     </row>
     <row r="479" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="B479" t="s">
         <v>76</v>
@@ -16137,10 +16132,10 @@
     </row>
     <row r="480" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B480" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C480" t="s">
         <v>1</v>
@@ -16163,10 +16158,10 @@
     </row>
     <row r="481" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="B481" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C481" t="s">
         <v>1</v>
@@ -16192,10 +16187,10 @@
     </row>
     <row r="482" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B482" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C482" t="s">
         <v>1</v>
@@ -16221,10 +16216,10 @@
     </row>
     <row r="483" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="B483" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C483" t="s">
         <v>1</v>
@@ -16250,10 +16245,10 @@
     </row>
     <row r="484" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B484" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C484" t="s">
         <v>14</v>
@@ -16276,10 +16271,10 @@
     </row>
     <row r="485" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="B485" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C485" t="s">
         <v>1</v>
@@ -16302,10 +16297,10 @@
     </row>
     <row r="486" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B486" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C486" t="s">
         <v>1</v>
@@ -16331,10 +16326,10 @@
     </row>
     <row r="487" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B487" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C487" t="s">
         <v>1</v>
@@ -16357,10 +16352,10 @@
     </row>
     <row r="488" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B488" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C488" t="s">
         <v>1</v>
@@ -16383,10 +16378,10 @@
     </row>
     <row r="489" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="B489" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C489" t="s">
         <v>1</v>
@@ -16409,10 +16404,10 @@
     </row>
     <row r="490" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="B490" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C490" t="s">
         <v>1</v>
@@ -16435,10 +16430,10 @@
     </row>
     <row r="491" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="B491" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C491" t="s">
         <v>1</v>
@@ -16461,10 +16456,10 @@
     </row>
     <row r="492" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B492" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C492" t="s">
         <v>1</v>
@@ -16487,10 +16482,10 @@
     </row>
     <row r="493" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B493" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C493" t="s">
         <v>1</v>
@@ -16516,10 +16511,10 @@
     </row>
     <row r="494" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B494" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C494" t="s">
         <v>1</v>
@@ -16542,10 +16537,10 @@
     </row>
     <row r="495" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B495" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C495" t="s">
         <v>1</v>
@@ -16559,10 +16554,10 @@
     </row>
     <row r="496" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B496" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C496" t="s">
         <v>1</v>
@@ -16585,10 +16580,10 @@
     </row>
     <row r="497" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B497" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C497" t="s">
         <v>1</v>
@@ -16608,10 +16603,10 @@
     </row>
     <row r="498" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B498" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C498" t="s">
         <v>1</v>
@@ -16634,10 +16629,10 @@
     </row>
     <row r="499" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B499" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C499" t="s">
         <v>1</v>
@@ -16660,10 +16655,10 @@
     </row>
     <row r="500" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B500" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C500" t="s">
         <v>1</v>
@@ -16683,10 +16678,10 @@
     </row>
     <row r="501" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B501" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C501" t="s">
         <v>1</v>
@@ -16706,10 +16701,10 @@
     </row>
     <row r="502" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B502" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C502" t="s">
         <v>1</v>
@@ -16732,10 +16727,10 @@
     </row>
     <row r="503" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B503" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C503" t="s">
         <v>1</v>
@@ -16761,10 +16756,10 @@
     </row>
     <row r="504" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B504" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C504" t="s">
         <v>1</v>
@@ -16787,10 +16782,10 @@
     </row>
     <row r="505" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B505" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C505" t="s">
         <v>14</v>
@@ -16810,10 +16805,10 @@
     </row>
     <row r="506" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B506" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C506" t="s">
         <v>14</v>
@@ -16827,10 +16822,10 @@
     </row>
     <row r="507" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B507" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C507" t="s">
         <v>1</v>
@@ -16853,10 +16848,10 @@
     </row>
     <row r="508" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B508" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C508" t="s">
         <v>1</v>
@@ -16879,10 +16874,10 @@
     </row>
     <row r="509" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B509" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C509" t="s">
         <v>1</v>
@@ -16896,10 +16891,10 @@
     </row>
     <row r="510" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B510" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C510" t="s">
         <v>1</v>
@@ -16922,10 +16917,10 @@
     </row>
     <row r="511" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B511" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C511" t="s">
         <v>1</v>
@@ -16948,10 +16943,10 @@
     </row>
     <row r="512" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B512" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C512" t="s">
         <v>1</v>
@@ -16974,10 +16969,10 @@
     </row>
     <row r="513" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B513" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C513" t="s">
         <v>1</v>
@@ -17000,10 +16995,10 @@
     </row>
     <row r="514" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B514" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C514" t="s">
         <v>1</v>
@@ -17026,10 +17021,10 @@
     </row>
     <row r="515" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B515" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C515" t="s">
         <v>1</v>
@@ -17052,10 +17047,10 @@
     </row>
     <row r="516" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B516" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C516" t="s">
         <v>1</v>
@@ -17075,10 +17070,10 @@
     </row>
     <row r="517" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B517" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C517" t="s">
         <v>14</v>
@@ -17104,10 +17099,10 @@
     </row>
     <row r="518" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B518" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C518" t="s">
         <v>1</v>
@@ -17130,10 +17125,10 @@
     </row>
     <row r="519" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B519" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C519" t="s">
         <v>1</v>
@@ -17153,10 +17148,10 @@
     </row>
     <row r="520" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B520" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C520" t="s">
         <v>1</v>
@@ -17179,10 +17174,10 @@
     </row>
     <row r="521" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B521" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C521" t="s">
         <v>1</v>
@@ -17196,10 +17191,10 @@
     </row>
     <row r="522" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B522" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C522" t="s">
         <v>1</v>
@@ -17222,10 +17217,10 @@
     </row>
     <row r="523" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B523" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C523" t="s">
         <v>1</v>
@@ -17248,10 +17243,10 @@
     </row>
     <row r="524" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B524" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C524" t="s">
         <v>1</v>
@@ -17274,10 +17269,10 @@
     </row>
     <row r="525" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="B525" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C525" t="s">
         <v>1</v>
@@ -17300,10 +17295,10 @@
     </row>
     <row r="526" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B526" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C526" t="s">
         <v>1</v>
@@ -17326,10 +17321,10 @@
     </row>
     <row r="527" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="B527" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C527" t="s">
         <v>1</v>
@@ -17349,10 +17344,10 @@
     </row>
     <row r="528" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B528" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C528" t="s">
         <v>1</v>
@@ -17375,10 +17370,10 @@
     </row>
     <row r="529" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B529" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C529" t="s">
         <v>1</v>
@@ -17398,10 +17393,10 @@
     </row>
     <row r="530" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B530" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C530" t="s">
         <v>1</v>
@@ -17424,10 +17419,10 @@
     </row>
     <row r="531" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B531" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C531" t="s">
         <v>1</v>
@@ -17450,10 +17445,10 @@
     </row>
     <row r="532" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B532" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C532" t="s">
         <v>1</v>
@@ -17476,10 +17471,10 @@
     </row>
     <row r="533" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="B533" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C533" t="s">
         <v>1</v>
@@ -17499,10 +17494,10 @@
     </row>
     <row r="534" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B534" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C534" t="s">
         <v>14</v>
@@ -17525,10 +17520,10 @@
     </row>
     <row r="535" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B535" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C535" t="s">
         <v>1</v>
@@ -17551,10 +17546,10 @@
     </row>
     <row r="536" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B536" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C536" t="s">
         <v>1</v>
@@ -17577,10 +17572,10 @@
     </row>
     <row r="537" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B537" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C537" t="s">
         <v>1</v>
@@ -17600,10 +17595,10 @@
     </row>
     <row r="538" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="B538" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C538" t="s">
         <v>1</v>
@@ -17626,10 +17621,10 @@
     </row>
     <row r="539" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B539" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C539" t="s">
         <v>14</v>
@@ -17652,10 +17647,10 @@
     </row>
     <row r="540" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B540" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C540" t="s">
         <v>1</v>
@@ -17681,10 +17676,10 @@
     </row>
     <row r="541" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B541" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C541" t="s">
         <v>14</v>
@@ -17710,10 +17705,10 @@
     </row>
     <row r="542" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="B542" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C542" t="s">
         <v>1</v>
@@ -17739,10 +17734,10 @@
     </row>
     <row r="543" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="B543" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C543" t="s">
         <v>1</v>
@@ -17765,10 +17760,10 @@
     </row>
     <row r="544" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B544" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C544" t="s">
         <v>1</v>
@@ -17791,10 +17786,10 @@
     </row>
     <row r="545" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B545" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C545" t="s">
         <v>14</v>
@@ -17817,10 +17812,10 @@
     </row>
     <row r="546" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="B546" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C546" t="s">
         <v>1</v>
@@ -17843,10 +17838,10 @@
     </row>
     <row r="547" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B547" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C547" t="s">
         <v>1</v>
@@ -17866,10 +17861,10 @@
     </row>
     <row r="548" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="B548" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C548" t="s">
         <v>1</v>
@@ -17892,10 +17887,10 @@
     </row>
     <row r="549" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B549" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C549" t="s">
         <v>1</v>
@@ -17918,16 +17913,16 @@
     </row>
     <row r="550" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B550" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C550" t="s">
         <v>1</v>
       </c>
       <c r="D550" t="s">
-        <v>1075</v>
+        <v>14</v>
       </c>
       <c r="E550" t="s">
         <v>2</v>
@@ -17947,10 +17942,10 @@
     </row>
     <row r="551" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B551" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C551" t="s">
         <v>1</v>
@@ -17970,10 +17965,10 @@
     </row>
     <row r="552" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B552" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C552" t="s">
         <v>1</v>
@@ -17987,10 +17982,10 @@
     </row>
     <row r="553" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B553" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C553" t="s">
         <v>1</v>
@@ -18004,10 +17999,10 @@
     </row>
     <row r="554" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="B554" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C554" t="s">
         <v>1</v>
@@ -18030,10 +18025,10 @@
     </row>
     <row r="555" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B555" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C555" t="s">
         <v>1</v>
@@ -18059,10 +18054,10 @@
     </row>
     <row r="556" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="B556" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C556" t="s">
         <v>1</v>
@@ -18085,10 +18080,10 @@
     </row>
     <row r="557" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B557" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C557" t="s">
         <v>1</v>
@@ -18102,10 +18097,10 @@
     </row>
     <row r="558" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="B558" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C558" t="s">
         <v>1</v>
@@ -18125,10 +18120,10 @@
     </row>
     <row r="559" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B559" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C559" t="s">
         <v>1</v>
@@ -18142,10 +18137,10 @@
     </row>
     <row r="560" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B560" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C560" t="s">
         <v>1</v>
@@ -18154,7 +18149,7 @@
         <v>14</v>
       </c>
       <c r="E560" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F560" t="s">
         <v>930</v>
@@ -18168,10 +18163,10 @@
     </row>
     <row r="561" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="B561" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C561" t="s">
         <v>14</v>
@@ -18191,10 +18186,10 @@
     </row>
     <row r="562" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B562" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C562" t="s">
         <v>14</v>
@@ -18208,10 +18203,10 @@
     </row>
     <row r="563" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="B563" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C563" t="s">
         <v>1</v>
@@ -18220,7 +18215,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F563" t="s">
         <v>935</v>
@@ -18234,10 +18229,10 @@
     </row>
     <row r="564" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="B564" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C564" t="s">
         <v>1</v>
@@ -18266,10 +18261,10 @@
     </row>
     <row r="565" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="B565" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C565" t="s">
         <v>1</v>
@@ -18292,10 +18287,10 @@
     </row>
     <row r="566" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="B566" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C566" t="s">
         <v>1</v>
@@ -18318,10 +18313,10 @@
     </row>
     <row r="567" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B567" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C567" t="s">
         <v>1</v>
@@ -18344,10 +18339,10 @@
     </row>
     <row r="568" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="B568" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C568" t="s">
         <v>1</v>
@@ -18376,10 +18371,10 @@
     </row>
     <row r="569" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="B569" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C569" t="s">
         <v>1</v>
@@ -18402,10 +18397,10 @@
     </row>
     <row r="570" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="B570" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C570" t="s">
         <v>1</v>
@@ -18428,10 +18423,10 @@
     </row>
     <row r="571" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="B571" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C571" t="s">
         <v>1</v>
@@ -18451,10 +18446,10 @@
     </row>
     <row r="572" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="B572" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C572" t="s">
         <v>14</v>
@@ -18477,10 +18472,10 @@
     </row>
     <row r="573" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="B573" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C573" t="s">
         <v>14</v>
@@ -18503,10 +18498,10 @@
     </row>
     <row r="574" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="B574" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C574" t="s">
         <v>1</v>
@@ -18529,10 +18524,10 @@
     </row>
     <row r="575" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="B575" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C575" t="s">
         <v>1</v>
@@ -18555,10 +18550,10 @@
     </row>
     <row r="576" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="B576" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C576" t="s">
         <v>14</v>
@@ -18581,10 +18576,10 @@
     </row>
     <row r="577" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="B577" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C577" t="s">
         <v>14</v>
@@ -18607,10 +18602,10 @@
     </row>
     <row r="578" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="B578" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C578" t="s">
         <v>14</v>
@@ -18633,10 +18628,10 @@
     </row>
     <row r="579" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="B579" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C579" t="s">
         <v>1</v>
@@ -18665,10 +18660,10 @@
     </row>
     <row r="580" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="B580" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C580" t="s">
         <v>1</v>
@@ -18691,10 +18686,10 @@
     </row>
     <row r="581" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B581" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C581" t="s">
         <v>1</v>
@@ -18717,10 +18712,10 @@
     </row>
     <row r="582" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="B582" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C582" t="s">
         <v>1</v>
@@ -18740,10 +18735,10 @@
     </row>
     <row r="583" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="B583" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C583" t="s">
         <v>1</v>
@@ -18766,10 +18761,10 @@
     </row>
     <row r="584" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="B584" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C584" t="s">
         <v>14</v>
@@ -18792,10 +18787,10 @@
     </row>
     <row r="585" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="B585" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C585" t="s">
         <v>14</v>
@@ -18815,10 +18810,10 @@
     </row>
     <row r="586" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="B586" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C586" t="s">
         <v>14</v>
@@ -18841,10 +18836,10 @@
     </row>
     <row r="587" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="B587" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C587" t="s">
         <v>14</v>
@@ -18864,10 +18859,10 @@
     </row>
     <row r="588" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="B588" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C588" t="s">
         <v>14</v>
@@ -18890,10 +18885,10 @@
     </row>
     <row r="589" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="B589" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C589" t="s">
         <v>14</v>
@@ -18916,10 +18911,10 @@
     </row>
     <row r="590" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="B590" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C590" t="s">
         <v>14</v>
@@ -18942,10 +18937,10 @@
     </row>
     <row r="591" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="B591" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C591" t="s">
         <v>14</v>
@@ -18968,10 +18963,10 @@
     </row>
     <row r="592" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="B592" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C592" t="s">
         <v>14</v>
@@ -18994,10 +18989,10 @@
     </row>
     <row r="593" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="B593" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C593" t="s">
         <v>14</v>
@@ -19020,10 +19015,10 @@
     </row>
     <row r="594" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="B594" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C594" t="s">
         <v>1</v>
@@ -19049,10 +19044,10 @@
     </row>
     <row r="595" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B595" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C595" t="s">
         <v>14</v>
@@ -19075,10 +19070,10 @@
     </row>
     <row r="596" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="B596" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C596" t="s">
         <v>14</v>
@@ -19101,10 +19096,10 @@
     </row>
     <row r="597" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="B597" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C597" t="s">
         <v>14</v>
@@ -19127,10 +19122,10 @@
     </row>
     <row r="598" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="B598" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C598" t="s">
         <v>14</v>
@@ -19153,10 +19148,10 @@
     </row>
     <row r="599" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="B599" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C599" t="s">
         <v>14</v>
@@ -19179,10 +19174,10 @@
     </row>
     <row r="600" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="B600" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C600" t="s">
         <v>14</v>
@@ -19205,10 +19200,10 @@
     </row>
     <row r="601" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="B601" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C601" t="s">
         <v>1</v>
@@ -19231,10 +19226,10 @@
     </row>
     <row r="602" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="B602" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C602" t="s">
         <v>14</v>
@@ -19257,10 +19252,10 @@
     </row>
     <row r="603" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="B603" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C603" t="s">
         <v>14</v>
@@ -19283,10 +19278,10 @@
     </row>
     <row r="604" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B604" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="C604" t="s">
         <v>1</v>
@@ -19295,15 +19290,15 @@
         <v>14</v>
       </c>
       <c r="E604" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="605" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="B605" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C605" t="s">
         <v>1</v>
@@ -19323,10 +19318,10 @@
     </row>
     <row r="606" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="B606" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C606" t="s">
         <v>14</v>
@@ -19349,10 +19344,10 @@
     </row>
     <row r="607" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B607" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C607" t="s">
         <v>14</v>
@@ -19375,10 +19370,10 @@
     </row>
     <row r="608" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B608" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C608" t="s">
         <v>14</v>
@@ -19390,15 +19385,15 @@
         <v>26</v>
       </c>
       <c r="H608" s="2" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="609" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="B609" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C609" t="s">
         <v>1</v>
@@ -19410,10 +19405,10 @@
         <v>74</v>
       </c>
       <c r="F609" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="G609" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
     </row>
   </sheetData>
